--- a/Documentation/L3DCC.xlsx
+++ b/Documentation/L3DCC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Desktop\L3CertificationRocket\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8382F020-0B4C-437C-BDAB-AF0B27BF56F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC4217A-1BFC-46E1-90DB-1E354CA8505D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3164,8 +3164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D4AB10-8B1F-49E9-9AC3-8D42B6DF44CD}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3292,7 +3292,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="89">
-        <v>4.2</v>
+        <v>4.0250000000000004</v>
       </c>
       <c r="F6" s="99" t="s">
         <v>10</v>
@@ -3301,7 +3301,7 @@
         <v>11</v>
       </c>
       <c r="H6" s="94">
-        <v>1090</v>
+        <v>1297</v>
       </c>
       <c r="I6" s="99" t="s">
         <v>12</v>
@@ -3326,7 +3326,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="89">
-        <v>0.2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="F7" s="99" t="s">
         <v>10</v>
@@ -3335,7 +3335,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="94">
-        <v>98.3</v>
+        <v>116</v>
       </c>
       <c r="I7" s="99" t="s">
         <v>286</v>
@@ -3353,7 +3353,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="90">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F8" s="99" t="s">
         <v>10</v>
@@ -3362,7 +3362,7 @@
         <v>18</v>
       </c>
       <c r="H8" s="88">
-        <v>942</v>
+        <v>1466</v>
       </c>
       <c r="I8" s="93" t="str">
         <f>IF(J2="Imperial", "ft/s", "m/s")</f>
@@ -3383,7 +3383,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="90">
-        <v>12.56</v>
+        <v>13</v>
       </c>
       <c r="F9" s="99" t="s">
         <v>21</v>
@@ -3392,7 +3392,7 @@
         <v>22</v>
       </c>
       <c r="H9" s="94">
-        <v>501</v>
+        <v>602</v>
       </c>
       <c r="I9" s="99" t="s">
         <v>287</v>
@@ -3410,7 +3410,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="90">
-        <v>17.940000000000001</v>
+        <v>23.19</v>
       </c>
       <c r="F10" s="99" t="s">
         <v>21</v>
@@ -3419,7 +3419,7 @@
         <v>25</v>
       </c>
       <c r="H10" s="94">
-        <v>0.7</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I10" s="122"/>
       <c r="J10" s="141" t="s">
@@ -3586,7 +3586,7 @@
         <v>36</v>
       </c>
       <c r="E20" s="98">
-        <v>12</v>
+        <v>14.6</v>
       </c>
       <c r="F20" s="100" t="s">
         <v>10</v>
@@ -3601,7 +3601,7 @@
         <v>37</v>
       </c>
       <c r="E21" s="98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F21" s="100" t="s">
         <v>10</v>
@@ -3616,7 +3616,7 @@
         <v>38</v>
       </c>
       <c r="E22" s="98">
-        <v>4.25</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F22" s="100" t="s">
         <v>10</v>
@@ -3663,7 +3663,7 @@
         <v>43</v>
       </c>
       <c r="E25" s="98">
-        <v>2000</v>
+        <v>3950</v>
       </c>
       <c r="F25" s="100" t="s">
         <v>44</v>
@@ -3699,9 +3699,7 @@
       <c r="D28" s="127" t="s">
         <v>300</v>
       </c>
-      <c r="E28" s="98">
-        <v>30</v>
-      </c>
+      <c r="E28" s="98"/>
       <c r="F28" s="128" t="s">
         <v>10</v>
       </c>
@@ -3711,9 +3709,7 @@
       <c r="D29" s="127" t="s">
         <v>301</v>
       </c>
-      <c r="E29" s="98">
-        <v>12</v>
-      </c>
+      <c r="E29" s="98"/>
       <c r="F29" s="128" t="s">
         <v>10</v>
       </c>
@@ -3722,9 +3718,7 @@
       <c r="D30" s="74" t="s">
         <v>304</v>
       </c>
-      <c r="E30" s="98">
-        <v>200</v>
-      </c>
+      <c r="E30" s="98"/>
       <c r="F30" s="128" t="s">
         <v>247</v>
       </c>
@@ -3738,9 +3732,7 @@
       <c r="D31" s="74" t="s">
         <v>305</v>
       </c>
-      <c r="E31" s="98">
-        <v>200</v>
-      </c>
+      <c r="E31" s="98"/>
       <c r="F31" s="128" t="s">
         <v>247</v>
       </c>
@@ -3850,7 +3842,7 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J2:L2"/>
   </mergeCells>
-  <dataValidations count="5">
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:L2" xr:uid="{CF705FB8-411F-48ED-9E60-BF7BBDB5E391}">
       <formula1>"Imperial, Metric"</formula1>
     </dataValidation>
@@ -3873,7 +3865,7 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{831F4D28-3DC4-46AA-AD71-4714460B09B7}">
           <x14:formula1>
             <xm:f>'Units and Normalization'!$M$2:$M$3</xm:f>
@@ -4214,7 +4206,7 @@
       </c>
       <c r="B2" s="105">
         <f>'Rocket Safety Mark McCord'!B21</f>
-        <v>40212.385965949325</v>
+        <v>12350.530632686939</v>
       </c>
       <c r="C2" s="74" t="s">
         <v>54</v>
@@ -4236,7 +4228,7 @@
       </c>
       <c r="B3" s="105">
         <f>'Rocket Safety Mark McCord'!B22</f>
-        <v>1182.0653902859631</v>
+        <v>225.45856190531475</v>
       </c>
       <c r="C3" s="74" t="s">
         <v>54</v>
@@ -4248,7 +4240,7 @@
       </c>
       <c r="G3" s="145" t="str">
         <f>'Rocket Safety Mark McCord'!I23</f>
-        <v>Check OK: Force &lt; Limits</v>
+        <v>Warning: Tube will buckle!</v>
       </c>
       <c r="H3" s="145"/>
     </row>
@@ -4263,7 +4255,7 @@
       </c>
       <c r="G4" s="146" t="str">
         <f>IF(INDEX(B12:B13,MATCH('Data Input'!I8,C12:C13,0),1)/'Data Input'!H8 &gt; 'Data Input'!E12, "The Max Velocity stays within the Safety Margin for Fin Flutter.", IF(INDEX(B12:B13,MATCH('Data Input'!I8,C12:C13,0),1)/'Data Input'!H8 &lt; 1, "The Maximum Velocity exceeds the Fin Flutter Velocity.", "The Max Velocity is over the Safety Margin, but not yet crossing the boundary."))</f>
-        <v>The Max Velocity stays within the Safety Margin for Fin Flutter.</v>
+        <v>The Maximum Velocity exceeds the Fin Flutter Velocity.</v>
       </c>
       <c r="H4" s="146"/>
     </row>
@@ -4273,7 +4265,7 @@
       </c>
       <c r="B5" s="47">
         <f>'Rocket Safety Mark McCord'!G21</f>
-        <v>16.755709592400002</v>
+        <v>19.772760048000002</v>
       </c>
       <c r="C5" s="47" t="str">
         <f>'Rocket Safety Mark McCord'!H21</f>
@@ -4291,7 +4283,7 @@
       </c>
       <c r="B6" s="47">
         <f>'Rocket Safety Mark McCord'!G22</f>
-        <v>13.713020863844365</v>
+        <v>12.62316633647397</v>
       </c>
       <c r="C6" s="47"/>
       <c r="D6" s="126"/>
@@ -4306,7 +4298,7 @@
       </c>
       <c r="B7" s="47">
         <f>'Rocket Safety Mark McCord'!G23</f>
-        <v>266.32471636233936</v>
+        <v>369.38471902128867</v>
       </c>
       <c r="C7" s="104" t="s">
         <v>54</v>
@@ -4348,7 +4340,7 @@
       </c>
       <c r="B10" s="109">
         <f>'Static Ports'!B44</f>
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="C10" s="108" t="str">
         <f>'Static Ports'!C44</f>
@@ -4376,7 +4368,7 @@
       </c>
       <c r="B12" s="47">
         <f>'Fin Flutter'!B20</f>
-        <v>2158.3849289497248</v>
+        <v>1396.1352265985054</v>
       </c>
       <c r="C12" s="103" t="s">
         <v>64</v>
@@ -4391,7 +4383,7 @@
       <c r="A13" s="126"/>
       <c r="B13" s="47">
         <f>'Fin Flutter'!B21</f>
-        <v>657.84362357504563</v>
+        <v>425.52125163014489</v>
       </c>
       <c r="C13" s="103" t="s">
         <v>16</v>
@@ -4406,7 +4398,7 @@
       <c r="A14" s="126"/>
       <c r="B14" s="47">
         <f>'Fin Flutter'!B22</f>
-        <v>2.0501561654386049</v>
+        <v>1.3261282564596804</v>
       </c>
       <c r="C14" s="103" t="s">
         <v>65</v>
@@ -4430,7 +4422,7 @@
       </c>
       <c r="B16" s="47">
         <f>'BP Calculations'!C9</f>
-        <v>3.0959999999999996</v>
+        <v>0</v>
       </c>
       <c r="C16" s="137" t="s">
         <v>312</v>
@@ -4447,7 +4439,7 @@
       </c>
       <c r="B17" s="47">
         <f>'BP Calculations'!F9</f>
-        <v>1.2383999999999997</v>
+        <v>0</v>
       </c>
       <c r="C17" s="137" t="s">
         <v>312</v>
@@ -4578,14 +4570,14 @@
       </c>
       <c r="C3" s="130">
         <f>'Data Input'!E6 - 'Data Input'!E7</f>
-        <v>4</v>
+        <v>3.9630000000000005</v>
       </c>
       <c r="E3" s="129" t="s">
         <v>303</v>
       </c>
       <c r="F3" s="130">
         <f>'Data Input'!E6 - 'Data Input'!E7</f>
-        <v>4</v>
+        <v>3.9630000000000005</v>
       </c>
       <c r="H3" s="136" t="s">
         <v>314</v>
@@ -4597,14 +4589,14 @@
       </c>
       <c r="C4" s="130">
         <f>'Data Input'!E28</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E4" s="129" t="s">
         <v>302</v>
       </c>
       <c r="F4" s="130">
         <f>'Data Input'!E29</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -4613,14 +4605,14 @@
       </c>
       <c r="C5" s="130">
         <f>'Data Input'!E30</f>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E5" s="129" t="s">
         <v>296</v>
       </c>
       <c r="F5" s="130">
         <f>'Data Input'!E31</f>
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
@@ -4645,14 +4637,14 @@
       </c>
       <c r="C8" s="133">
         <f>$C$5/(0.7854*$C$3^2)</f>
-        <v>15.91545709192768</v>
+        <v>0</v>
       </c>
       <c r="E8" s="129" t="s">
         <v>307</v>
       </c>
       <c r="F8" s="133">
         <f>$F$5/(0.7854*$F$3^2)</f>
-        <v>15.91545709192768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -4661,14 +4653,14 @@
       </c>
       <c r="C9" s="134">
         <f>$C$8*($C$4*$C$3^2*0.7854)*0.000516</f>
-        <v>3.0959999999999996</v>
+        <v>0</v>
       </c>
       <c r="E9" s="132" t="s">
         <v>308</v>
       </c>
       <c r="F9" s="134">
         <f>$F$8*($F$4*$F$3^2*0.7854)*0.000516</f>
-        <v>1.2383999999999997</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4919,7 +4911,7 @@
       </c>
       <c r="B7" s="17">
         <f>'Data Input'!E6</f>
-        <v>4.2</v>
+        <v>4.0250000000000004</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>10</v>
@@ -4927,14 +4919,14 @@
       <c r="D7" s="122"/>
       <c r="E7" s="21">
         <f>VLOOKUP(C7,'Units and Normalization'!$A$2:$B$10,2,FALSE)*B7</f>
-        <v>4.2</v>
+        <v>4.0250000000000004</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="23">
         <f>'Data Input'!H6</f>
-        <v>1090</v>
+        <v>1297</v>
       </c>
       <c r="H7" s="24" t="str">
         <f>'Data Input'!I6</f>
@@ -4943,7 +4935,7 @@
       <c r="I7" s="122"/>
       <c r="J7" s="25">
         <f>VLOOKUP(H7,'Units and Normalization'!$G$2:$H$10,2,FALSE)*G7</f>
-        <v>1090</v>
+        <v>1297</v>
       </c>
       <c r="K7" s="122"/>
       <c r="L7" s="13"/>
@@ -4969,7 +4961,7 @@
       </c>
       <c r="B8" s="17">
         <f>'Data Input'!E7</f>
-        <v>0.2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>10</v>
@@ -4977,14 +4969,14 @@
       <c r="D8" s="122"/>
       <c r="E8" s="21">
         <f>VLOOKUP(C8,'Units and Normalization'!$A$2:$B$10,2,FALSE)*B8</f>
-        <v>0.2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>72</v>
       </c>
       <c r="G8" s="23">
         <f>'Data Input'!H7</f>
-        <v>98.3</v>
+        <v>116</v>
       </c>
       <c r="H8" s="24" t="str">
         <f>'Data Input'!I7</f>
@@ -4993,7 +4985,7 @@
       <c r="I8" s="122"/>
       <c r="J8" s="25">
         <f>VLOOKUP(H8,'Units and Normalization'!$J$2:$K$10,2,FALSE)*G8</f>
-        <v>29.961840000000002</v>
+        <v>35.3568</v>
       </c>
       <c r="K8" s="122"/>
       <c r="L8" s="13"/>
@@ -5019,7 +5011,7 @@
       </c>
       <c r="B9" s="17">
         <f>'Data Input'!E8</f>
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>10</v>
@@ -5029,14 +5021,14 @@
       </c>
       <c r="E9" s="21">
         <f>VLOOKUP(C9,'Units and Normalization'!$A$2:$B$10,2,FALSE)*B9</f>
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="23">
         <f>'Data Input'!H8</f>
-        <v>942</v>
+        <v>1466</v>
       </c>
       <c r="H9" s="24" t="str">
         <f>IF('Data Input'!I8 = "ft/s","fps","m/s")</f>
@@ -5045,7 +5037,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="25">
         <f>VLOOKUP(H9,'Units and Normalization'!$J$2:$K$10,2,FALSE)*G9</f>
-        <v>287.1216</v>
+        <v>446.83680000000004</v>
       </c>
       <c r="K9" s="122"/>
       <c r="L9" s="13"/>
@@ -5071,7 +5063,7 @@
       </c>
       <c r="B10" s="17">
         <f>'Data Input'!E9</f>
-        <v>12.56</v>
+        <v>13</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>21</v>
@@ -5079,14 +5071,14 @@
       <c r="D10" s="122"/>
       <c r="E10" s="31">
         <f>VLOOKUP(C10,'Units and Normalization'!$D$2:$E$10,2,FALSE)*B10</f>
-        <v>5.6971140143174006</v>
+        <v>5.896694441570558</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="23">
         <f>'Data Input'!H9</f>
-        <v>501</v>
+        <v>602</v>
       </c>
       <c r="H10" s="24" t="str">
         <f>'Data Input'!I9</f>
@@ -5095,7 +5087,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="25">
         <f>VLOOKUP(H10,'Units and Normalization'!$M$2:$N$10,2,FALSE)*G10</f>
-        <v>152.70479511344655</v>
+        <v>183.48959412833298</v>
       </c>
       <c r="K10" s="122"/>
       <c r="L10" s="13"/>
@@ -5121,7 +5113,7 @@
       </c>
       <c r="B11" s="17">
         <f>'Data Input'!E10</f>
-        <v>17.940000000000001</v>
+        <v>23.19</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>21</v>
@@ -5129,14 +5121,14 @@
       <c r="D11" s="122"/>
       <c r="E11" s="31">
         <f>VLOOKUP(C11,'Units and Normalization'!$D$2:$E$10,2,FALSE)*B11</f>
-        <v>8.1374383293673702</v>
+        <v>10.518795700001634</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="23">
         <f>'Data Input'!H10</f>
-        <v>0.7</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="3" t="s">
@@ -5236,7 +5228,7 @@
       </c>
       <c r="B14" s="32">
         <f>E7-(E8*2)</f>
-        <v>3.8000000000000003</v>
+        <v>3.9010000000000002</v>
       </c>
       <c r="C14" s="122" t="s">
         <v>79</v>
@@ -5276,7 +5268,7 @@
       </c>
       <c r="B15" s="33">
         <f>(PI()*((0.5*E7)^2))-(PI()*((0.5*B14)^2))</f>
-        <v>2.5132741228718327</v>
+        <v>0.77190816454293376</v>
       </c>
       <c r="C15" s="122" t="s">
         <v>82</v>
@@ -5318,7 +5310,7 @@
       </c>
       <c r="B16" s="33">
         <f>(PI()*((0.5*E7)^2))</f>
-        <v>13.854423602330987</v>
+        <v>12.723941120890787</v>
       </c>
       <c r="C16" s="122" t="s">
         <v>82</v>
@@ -5330,7 +5322,7 @@
       </c>
       <c r="G16" s="110">
         <f>0.101972*J10</f>
-        <v>15.571613367308371</v>
+        <v>18.710800892454369</v>
       </c>
       <c r="H16" s="122" t="s">
         <v>87</v>
@@ -5373,7 +5365,7 @@
       </c>
       <c r="G17" s="28">
         <f>0.00291545*J9</f>
-        <v>0.83708866871999998</v>
+        <v>1.3027303485600001</v>
       </c>
       <c r="H17" s="122"/>
       <c r="I17" s="122"/>
@@ -5402,7 +5394,7 @@
       </c>
       <c r="B18" s="35">
         <f>(PI() * ((E7^4) - (B14^4)))/ 64</f>
-        <v>5.0391146163580274</v>
+        <v>1.5157587216554989</v>
       </c>
       <c r="C18" s="122" t="s">
         <v>89</v>
@@ -5414,7 +5406,7 @@
       </c>
       <c r="G18" s="111">
         <f>IF(G17&gt;=1, 0.5 * G14 * G13 * (G17^2) * G11 * B16, (0.5 * G15 * (J9^2) * G11 * (B16*0.00064516)/4.44))</f>
-        <v>71.155551533405031</v>
+        <v>126.65459265757661</v>
       </c>
       <c r="H18" s="122" t="s">
         <v>92</v>
@@ -5450,7 +5442,7 @@
       </c>
       <c r="G19" s="111">
         <f>(E10*2.2)*G16</f>
-        <v>195.16916482893433</v>
+        <v>242.73012636371209</v>
       </c>
       <c r="H19" s="122" t="s">
         <v>92</v>
@@ -5510,7 +5502,7 @@
       </c>
       <c r="B21" s="37">
         <f>VLOOKUP(B12,'Reference Data'!A:B,2,FALSE) * B15</f>
-        <v>40212.385965949325</v>
+        <v>12350.530632686939</v>
       </c>
       <c r="C21" s="38" t="s">
         <v>92</v>
@@ -5524,7 +5516,7 @@
       </c>
       <c r="G21" s="113">
         <f>(2.23694 * J8)/4</f>
-        <v>16.755709592400002</v>
+        <v>19.772760048000002</v>
       </c>
       <c r="H21" s="114" t="s">
         <v>96</v>
@@ -5557,7 +5549,7 @@
       </c>
       <c r="B22" s="41">
         <f>1 * PI()^2 * B17 * B18 / (E9^2)</f>
-        <v>1182.0653902859631</v>
+        <v>225.45856190531475</v>
       </c>
       <c r="C22" s="42" t="s">
         <v>92</v>
@@ -5571,7 +5563,7 @@
       </c>
       <c r="G22" s="45">
         <f>(J7/4.44)/(E11*2.2)</f>
-        <v>13.713020863844365</v>
+        <v>12.62316633647397</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>100</v>
@@ -5610,14 +5602,14 @@
       </c>
       <c r="G23" s="116">
         <f>G18+G19</f>
-        <v>266.32471636233936</v>
+        <v>369.38471902128867</v>
       </c>
       <c r="H23" s="42" t="s">
         <v>92</v>
       </c>
       <c r="I23" s="117" t="str">
         <f>IF(G23&gt;B22,"Warning: Tube will buckle!",IF(G23&gt;B21,"Warning: Tube will crush!",IF(B22/G23&lt;('Data Input'!E12),"Caution: Within Safety Margin","Check OK: Force &lt; Limits")))</f>
-        <v>Check OK: Force &lt; Limits</v>
+        <v>Warning: Tube will buckle!</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="122"/>
@@ -35405,7 +35397,7 @@
       </c>
       <c r="B28" s="62">
         <f>'Data Input'!H8</f>
-        <v>942</v>
+        <v>1466</v>
       </c>
       <c r="C28" s="63" t="str">
         <f>IF(MeasurementSystem="Imperial", "ft/s", "m/s")</f>
@@ -35569,7 +35561,7 @@
       </c>
       <c r="B38" s="54">
         <f>IF(ISBLANK(B28),0.0025,IF(MeasurementSystem="Imperial",MeterstoFeet,1)/Velocity)</f>
-        <v>3.4828448991646708E-3</v>
+        <v>2.2379535436651567E-3</v>
       </c>
       <c r="C38" s="54" t="s">
         <v>145</v>
@@ -35644,7 +35636,7 @@
       </c>
       <c r="B42" s="55">
         <f>(AirMass*AtmosphericPressureChange)/PressureEqualization</f>
-        <v>1.7532176406980117E-4</v>
+        <v>2.7284682179015766E-4</v>
       </c>
       <c r="C42" s="55" t="str">
         <f>IF(MeasurementSystem="Imperial", "lbm/s", "kg/s")</f>
@@ -35674,7 +35666,7 @@
       </c>
       <c r="B44" s="70">
         <f>CEILING(SQRT((4*MassFlowRate/(PI()*NumberofPorts*DischargeCoefficient*SQRT(2*AirDensity*PressureLaunchAltitude*IF(MeasurementSystem="Imperial",inHgtoPSF*g, 1)*(AirSpecificHeatRatio/(AirSpecificHeatRatio-1))*((1-AtmosphericPressureChange)^(2/AirSpecificHeatRatio)-(1-AtmosphericPressureChange)^((AirSpecificHeatRatio+1)/AirSpecificHeatRatio))))))*IF(MeasurementSystem="Imperial", 12, 1000),IF(MeasurementSystem="Imperial", 1/64, 0.5))</f>
-        <v>0.125</v>
+        <v>0.15625</v>
       </c>
       <c r="C44" s="71" t="str">
         <f>IF(MeasurementSystem="Imperial", "in", "mm")</f>
@@ -35826,7 +35818,7 @@
       </c>
       <c r="B4" s="79">
         <f>'Data Input'!E20</f>
-        <v>12</v>
+        <v>14.6</v>
       </c>
       <c r="C4" s="77" t="s">
         <v>10</v>
@@ -35845,7 +35837,7 @@
       </c>
       <c r="B5" s="79">
         <f>'Data Input'!E21</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" s="77" t="s">
         <v>10</v>
@@ -35861,7 +35853,7 @@
       </c>
       <c r="B6" s="79">
         <f>'Data Input'!E22</f>
-        <v>4.25</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C6" s="77" t="s">
         <v>10</v>
@@ -35906,7 +35898,7 @@
       </c>
       <c r="B9" s="79">
         <f>'Data Input'!E25</f>
-        <v>2000</v>
+        <v>3950</v>
       </c>
       <c r="C9" s="77" t="s">
         <v>44</v>
@@ -35929,7 +35921,7 @@
       </c>
       <c r="B12" s="83">
         <f>59-0.00356*h</f>
-        <v>51.88</v>
+        <v>44.938000000000002</v>
       </c>
       <c r="C12" s="80" t="s">
         <v>48</v>
@@ -35942,7 +35934,7 @@
       </c>
       <c r="B13" s="84">
         <f>0.5*(Cr+Ct)*b</f>
-        <v>31.875</v>
+        <v>37.229999999999997</v>
       </c>
       <c r="C13" s="77" t="s">
         <v>163</v>
@@ -35954,7 +35946,7 @@
       </c>
       <c r="B14" s="84">
         <f>b*b/S</f>
-        <v>0.56666666666666665</v>
+        <v>0.69863013698630139</v>
       </c>
       <c r="C14" s="77" t="s">
         <v>158</v>
@@ -35966,7 +35958,7 @@
       </c>
       <c r="B15" s="84">
         <f>Ct/Cr</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C15" s="77" t="s">
         <v>158</v>
@@ -35978,7 +35970,7 @@
       </c>
       <c r="B16" s="84">
         <f>2116*((Tb+459.7)/518.6)^5.256</f>
-        <v>1969.7251796132864</v>
+        <v>1833.2369305761858</v>
       </c>
       <c r="C16" s="77" t="s">
         <v>167</v>
@@ -35990,7 +35982,7 @@
       </c>
       <c r="B17" s="84">
         <f>B16/144</f>
-        <v>13.678647080647822</v>
+        <v>12.73081201789018</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>169</v>
@@ -36014,7 +36006,7 @@
       </c>
       <c r="B20" s="85">
         <f>a*SQRT(G/(1.337*AR^3*P*(Gamma+1)/(2*(AR+2)*(th/Cr)^3)))</f>
-        <v>2158.3849289497248</v>
+        <v>1396.1352265985054</v>
       </c>
       <c r="C20" s="77" t="s">
         <v>64</v>
@@ -36023,7 +36015,7 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="85">
         <f>B20/3.281</f>
-        <v>657.84362357504563</v>
+        <v>425.52125163014489</v>
       </c>
       <c r="C21" s="77" t="s">
         <v>16</v>
@@ -36032,7 +36024,7 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="85">
         <f>B20/a</f>
-        <v>2.0501561654386049</v>
+        <v>1.3261282564596804</v>
       </c>
       <c r="C22" s="77" t="s">
         <v>65</v>
@@ -36047,7 +36039,7 @@
       </c>
       <c r="B24" s="85">
         <f>B20/SM</f>
-        <v>1798.6541074581041</v>
+        <v>1163.4460221654213</v>
       </c>
       <c r="C24" s="77" t="s">
         <v>64</v>
@@ -36056,7 +36048,7 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="85">
         <f>B21/SM</f>
-        <v>548.20301964587134</v>
+        <v>354.60104302512076</v>
       </c>
       <c r="C25" s="77" t="s">
         <v>16</v>
@@ -36065,7 +36057,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="85">
         <f>B22/SM</f>
-        <v>1.7084634711988376</v>
+        <v>1.105106880383067</v>
       </c>
       <c r="C26" s="77" t="s">
         <v>65</v>
@@ -37925,6 +37917,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085350F7B39B72E47B5E6CE8BF446E056" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="db0a58a5944fd69924d99daadaf1f9e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85e5976b-784c-4b13-9c8e-bb1dacbd559e" xmlns:ns3="b9b176e5-2c46-4bbf-96dd-b8b217db8038" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e3b80587b7892398146653f22fc374b" ns2:_="" ns3:_="">
     <xsd:import namespace="85e5976b-784c-4b13-9c8e-bb1dacbd559e"/>
@@ -38147,22 +38154,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73972F0-E86A-461F-AF30-0AF51C282440}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BED63D46-FEAE-48C6-B295-DDEE4C241F0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1026FC65-331A-47ED-AD19-458AA35E71E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38179,21 +38188,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BED63D46-FEAE-48C6-B295-DDEE4C241F0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73972F0-E86A-461F-AF30-0AF51C282440}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentation/L3DCC.xlsx
+++ b/Documentation/L3DCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Desktop\L3CertificationRocket\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E44841F-9CE0-4003-8E8F-0AE22A839813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144D259E-304C-433F-8F11-75809CABCA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="17640" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Input" sheetId="6" r:id="rId1"/>
@@ -3335,7 +3335,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="94">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I7" s="99" t="s">
         <v>286</v>
@@ -3362,7 +3362,7 @@
         <v>18</v>
       </c>
       <c r="H8" s="88">
-        <v>1459</v>
+        <v>1336</v>
       </c>
       <c r="I8" s="93" t="str">
         <f>IF(J2="Imperial", "ft/s", "m/s")</f>
@@ -3383,7 +3383,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="90">
-        <v>13.31</v>
+        <v>15.75</v>
       </c>
       <c r="F9" s="99" t="s">
         <v>21</v>
@@ -3392,7 +3392,7 @@
         <v>22</v>
       </c>
       <c r="H9" s="94">
-        <v>594</v>
+        <v>535</v>
       </c>
       <c r="I9" s="99" t="s">
         <v>287</v>
@@ -3410,7 +3410,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="90">
-        <v>23.5</v>
+        <v>25.94</v>
       </c>
       <c r="F10" s="99" t="s">
         <v>21</v>
@@ -3663,7 +3663,7 @@
         <v>43</v>
       </c>
       <c r="E25" s="98">
-        <v>3950</v>
+        <v>3750</v>
       </c>
       <c r="F25" s="100" t="s">
         <v>44</v>
@@ -3699,7 +3699,9 @@
       <c r="D28" s="127" t="s">
         <v>300</v>
       </c>
-      <c r="E28" s="98"/>
+      <c r="E28" s="98">
+        <v>30</v>
+      </c>
       <c r="F28" s="128" t="s">
         <v>10</v>
       </c>
@@ -3709,7 +3711,9 @@
       <c r="D29" s="127" t="s">
         <v>301</v>
       </c>
-      <c r="E29" s="98"/>
+      <c r="E29" s="98">
+        <v>22</v>
+      </c>
       <c r="F29" s="128" t="s">
         <v>10</v>
       </c>
@@ -3718,7 +3722,9 @@
       <c r="D30" s="74" t="s">
         <v>304</v>
       </c>
-      <c r="E30" s="98"/>
+      <c r="E30" s="98">
+        <v>200</v>
+      </c>
       <c r="F30" s="128" t="s">
         <v>247</v>
       </c>
@@ -3732,7 +3738,9 @@
       <c r="D31" s="74" t="s">
         <v>305</v>
       </c>
-      <c r="E31" s="98"/>
+      <c r="E31" s="98">
+        <v>100</v>
+      </c>
       <c r="F31" s="128" t="s">
         <v>247</v>
       </c>
@@ -4174,7 +4182,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4255,7 +4263,7 @@
       </c>
       <c r="G4" s="146" t="str">
         <f>IF(INDEX(B12:B13,MATCH('Data Input'!I8,C12:C13,0),1)/'Data Input'!H8 &gt; 'Data Input'!E12, "The Max Velocity stays within the Safety Margin for Fin Flutter.", IF(INDEX(B12:B13,MATCH('Data Input'!I8,C12:C13,0),1)/'Data Input'!H8 &lt; 1, "The Maximum Velocity exceeds the Fin Flutter Velocity.", "The Max Velocity is over the Safety Margin, but not yet crossing the boundary."))</f>
-        <v>The Maximum Velocity exceeds the Fin Flutter Velocity.</v>
+        <v>The Max Velocity is over the Safety Margin, but not yet crossing the boundary.</v>
       </c>
       <c r="H4" s="146"/>
     </row>
@@ -4265,7 +4273,7 @@
       </c>
       <c r="B5" s="47">
         <f>'Rocket Safety Mark McCord'!G21</f>
-        <v>20.284124532</v>
+        <v>19.090940736</v>
       </c>
       <c r="C5" s="47" t="str">
         <f>'Rocket Safety Mark McCord'!H21</f>
@@ -4283,7 +4291,7 @@
       </c>
       <c r="B6" s="47">
         <f>'Rocket Safety Mark McCord'!G22</f>
-        <v>12.456647972035379</v>
+        <v>11.284935518227886</v>
       </c>
       <c r="C6" s="47"/>
       <c r="D6" s="126"/>
@@ -4298,7 +4306,7 @@
       </c>
       <c r="B7" s="47">
         <f>'Rocket Safety Mark McCord'!G23</f>
-        <v>366.26200971386595</v>
+        <v>362.84452444080227</v>
       </c>
       <c r="C7" s="104" t="s">
         <v>54</v>
@@ -4340,7 +4348,7 @@
       </c>
       <c r="B10" s="109">
         <f>'Static Ports'!B44</f>
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="C10" s="108" t="str">
         <f>'Static Ports'!C44</f>
@@ -4368,7 +4376,7 @@
       </c>
       <c r="B12" s="47">
         <f>'Fin Flutter'!B20</f>
-        <v>1396.1352265985054</v>
+        <v>1390.9717483254069</v>
       </c>
       <c r="C12" s="103" t="s">
         <v>64</v>
@@ -4383,7 +4391,7 @@
       <c r="A13" s="126"/>
       <c r="B13" s="47">
         <f>'Fin Flutter'!B21</f>
-        <v>425.52125163014489</v>
+        <v>423.94750025157174</v>
       </c>
       <c r="C13" s="103" t="s">
         <v>16</v>
@@ -4398,7 +4406,7 @@
       <c r="A14" s="126"/>
       <c r="B14" s="47">
         <f>'Fin Flutter'!B22</f>
-        <v>1.3261282564596804</v>
+        <v>1.3212236925541807</v>
       </c>
       <c r="C14" s="103" t="s">
         <v>65</v>
@@ -4422,7 +4430,7 @@
       </c>
       <c r="B16" s="47">
         <f>'BP Calculations'!C9</f>
-        <v>0</v>
+        <v>3.0959999999999996</v>
       </c>
       <c r="C16" s="137" t="s">
         <v>312</v>
@@ -4439,7 +4447,7 @@
       </c>
       <c r="B17" s="47">
         <f>'BP Calculations'!F9</f>
-        <v>0</v>
+        <v>1.1352</v>
       </c>
       <c r="C17" s="137" t="s">
         <v>312</v>
@@ -4538,7 +4546,7 @@
   <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4589,14 +4597,14 @@
       </c>
       <c r="C4" s="130">
         <f>'Data Input'!E28</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E4" s="129" t="s">
         <v>302</v>
       </c>
       <c r="F4" s="130">
         <f>'Data Input'!E29</f>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -4605,14 +4613,14 @@
       </c>
       <c r="C5" s="130">
         <f>'Data Input'!E30</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E5" s="129" t="s">
         <v>296</v>
       </c>
       <c r="F5" s="130">
         <f>'Data Input'!E31</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -4637,14 +4645,14 @@
       </c>
       <c r="C8" s="133">
         <f>$C$5/(0.7854*$C$3^2)</f>
-        <v>0</v>
+        <v>16.214029321491449</v>
       </c>
       <c r="E8" s="129" t="s">
         <v>307</v>
       </c>
       <c r="F8" s="133">
         <f>$F$5/(0.7854*$F$3^2)</f>
-        <v>0</v>
+        <v>8.1070146607457243</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4653,14 +4661,14 @@
       </c>
       <c r="C9" s="134">
         <f>$C$8*($C$4*$C$3^2*0.7854)*0.000516</f>
-        <v>0</v>
+        <v>3.0959999999999996</v>
       </c>
       <c r="E9" s="132" t="s">
         <v>308</v>
       </c>
       <c r="F9" s="134">
         <f>$F$8*($F$4*$F$3^2*0.7854)*0.000516</f>
-        <v>0</v>
+        <v>1.1352</v>
       </c>
     </row>
   </sheetData>
@@ -4684,7 +4692,7 @@
   <dimension ref="A1:AA1012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4976,7 +4984,7 @@
       </c>
       <c r="G8" s="23">
         <f>'Data Input'!H7</f>
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="H8" s="24" t="str">
         <f>'Data Input'!I7</f>
@@ -4985,7 +4993,7 @@
       <c r="I8" s="122"/>
       <c r="J8" s="25">
         <f>VLOOKUP(H8,'Units and Normalization'!$J$2:$K$10,2,FALSE)*G8</f>
-        <v>36.2712</v>
+        <v>34.137599999999999</v>
       </c>
       <c r="K8" s="122"/>
       <c r="L8" s="13"/>
@@ -5028,7 +5036,7 @@
       </c>
       <c r="G9" s="23">
         <f>'Data Input'!H8</f>
-        <v>1459</v>
+        <v>1336</v>
       </c>
       <c r="H9" s="24" t="str">
         <f>IF('Data Input'!I8 = "ft/s","fps","m/s")</f>
@@ -5037,7 +5045,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="25">
         <f>VLOOKUP(H9,'Units and Normalization'!$J$2:$K$10,2,FALSE)*G9</f>
-        <v>444.70320000000004</v>
+        <v>407.21280000000002</v>
       </c>
       <c r="K9" s="122"/>
       <c r="L9" s="13"/>
@@ -5063,7 +5071,7 @@
       </c>
       <c r="B10" s="17">
         <f>'Data Input'!E9</f>
-        <v>13.31</v>
+        <v>15.75</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>21</v>
@@ -5071,14 +5079,14 @@
       <c r="D10" s="122"/>
       <c r="E10" s="31">
         <f>VLOOKUP(C10,'Units and Normalization'!$D$2:$E$10,2,FALSE)*B10</f>
-        <v>6.0373079244080099</v>
+        <v>7.1440721119027915</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="23">
         <f>'Data Input'!H9</f>
-        <v>594</v>
+        <v>535</v>
       </c>
       <c r="H10" s="24" t="str">
         <f>'Data Input'!I9</f>
@@ -5087,7 +5095,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="25">
         <f>VLOOKUP(H10,'Units and Normalization'!$M$2:$N$10,2,FALSE)*G10</f>
-        <v>181.05119420636177</v>
+        <v>163.06799478182415</v>
       </c>
       <c r="K10" s="122"/>
       <c r="L10" s="13"/>
@@ -5113,7 +5121,7 @@
       </c>
       <c r="B11" s="17">
         <f>'Data Input'!E10</f>
-        <v>23.5</v>
+        <v>25.94</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>21</v>
@@ -5121,7 +5129,7 @@
       <c r="D11" s="122"/>
       <c r="E11" s="31">
         <f>VLOOKUP(C11,'Units and Normalization'!$D$2:$E$10,2,FALSE)*B11</f>
-        <v>10.659409182839084</v>
+        <v>11.766173370333867</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>25</v>
@@ -5322,7 +5330,7 @@
       </c>
       <c r="G16" s="110">
         <f>0.101972*J10</f>
-        <v>18.462152375611122</v>
+        <v>16.628369563892171</v>
       </c>
       <c r="H16" s="122" t="s">
         <v>87</v>
@@ -5365,7 +5373,7 @@
       </c>
       <c r="G17" s="28">
         <f>0.00291545*J9</f>
-        <v>1.2965099444400001</v>
+        <v>1.18720855776</v>
       </c>
       <c r="H17" s="122"/>
       <c r="I17" s="122"/>
@@ -5406,7 +5414,7 @@
       </c>
       <c r="G18" s="111">
         <f>IF(G17&gt;=1, 0.5 * G14 * G13 * (G17^2) * G11 * B16, (0.5 * G15 * (J9^2) * G11 * (B16*0.00064516)/4.44))</f>
-        <v>121.04627226827452</v>
+        <v>101.49712765160872</v>
       </c>
       <c r="H18" s="122" t="s">
         <v>92</v>
@@ -5442,7 +5450,7 @@
       </c>
       <c r="G19" s="111">
         <f>(E10*2.2)*G16</f>
-        <v>245.21573744559146</v>
+        <v>261.34739678919357</v>
       </c>
       <c r="H19" s="122" t="s">
         <v>92</v>
@@ -5516,7 +5524,7 @@
       </c>
       <c r="G21" s="113">
         <f>(2.23694 * J8)/4</f>
-        <v>20.284124532</v>
+        <v>19.090940736</v>
       </c>
       <c r="H21" s="114" t="s">
         <v>96</v>
@@ -5563,7 +5571,7 @@
       </c>
       <c r="G22" s="45">
         <f>(J7/4.44)/(E11*2.2)</f>
-        <v>12.456647972035379</v>
+        <v>11.284935518227886</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>100</v>
@@ -5602,7 +5610,7 @@
       </c>
       <c r="G23" s="116">
         <f>G18+G19</f>
-        <v>366.26200971386595</v>
+        <v>362.84452444080227</v>
       </c>
       <c r="H23" s="42" t="s">
         <v>92</v>
@@ -35397,7 +35405,7 @@
       </c>
       <c r="B28" s="62">
         <f>'Data Input'!H8</f>
-        <v>1459</v>
+        <v>1336</v>
       </c>
       <c r="C28" s="63" t="str">
         <f>IF(MeasurementSystem="Imperial", "ft/s", "m/s")</f>
@@ -35561,7 +35569,7 @@
       </c>
       <c r="B38" s="54">
         <f>IF(ISBLANK(B28),0.0025,IF(MeasurementSystem="Imperial",MeterstoFeet,1)/Velocity)</f>
-        <v>2.2486908122091296E-3</v>
+        <v>2.4557184842912572E-3</v>
       </c>
       <c r="C38" s="54" t="s">
         <v>145</v>
@@ -35636,7 +35644,7 @@
       </c>
       <c r="B42" s="55">
         <f>(AirMass*AtmosphericPressureChange)/PressureEqualization</f>
-        <v>2.2217236865475383E-4</v>
+        <v>2.0344227863108372E-4</v>
       </c>
       <c r="C42" s="55" t="str">
         <f>IF(MeasurementSystem="Imperial", "lbm/s", "kg/s")</f>
@@ -35666,7 +35674,7 @@
       </c>
       <c r="B44" s="70">
         <f>CEILING(SQRT((4*MassFlowRate/(PI()*NumberofPorts*DischargeCoefficient*SQRT(2*AirDensity*PressureLaunchAltitude*IF(MeasurementSystem="Imperial",inHgtoPSF*g, 1)*(AirSpecificHeatRatio/(AirSpecificHeatRatio-1))*((1-AtmosphericPressureChange)^(2/AirSpecificHeatRatio)-(1-AtmosphericPressureChange)^((AirSpecificHeatRatio+1)/AirSpecificHeatRatio))))))*IF(MeasurementSystem="Imperial", 12, 1000),IF(MeasurementSystem="Imperial", 1/64, 0.5))</f>
-        <v>0.140625</v>
+        <v>0.125</v>
       </c>
       <c r="C44" s="71" t="str">
         <f>IF(MeasurementSystem="Imperial", "in", "mm")</f>
@@ -35749,7 +35757,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35898,7 +35906,7 @@
       </c>
       <c r="B9" s="79">
         <f>'Data Input'!E25</f>
-        <v>3950</v>
+        <v>3750</v>
       </c>
       <c r="C9" s="77" t="s">
         <v>44</v>
@@ -35921,7 +35929,7 @@
       </c>
       <c r="B12" s="83">
         <f>59-0.00356*h</f>
-        <v>44.938000000000002</v>
+        <v>45.65</v>
       </c>
       <c r="C12" s="80" t="s">
         <v>48</v>
@@ -35970,7 +35978,7 @@
       </c>
       <c r="B16" s="84">
         <f>2116*((Tb+459.7)/518.6)^5.256</f>
-        <v>1833.2369305761858</v>
+        <v>1846.8726473242975</v>
       </c>
       <c r="C16" s="77" t="s">
         <v>167</v>
@@ -35982,7 +35990,7 @@
       </c>
       <c r="B17" s="84">
         <f>B16/144</f>
-        <v>12.73081201789018</v>
+        <v>12.825504495307621</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>169</v>
@@ -36006,7 +36014,7 @@
       </c>
       <c r="B20" s="85">
         <f>a*SQRT(G/(1.337*AR^3*P*(Gamma+1)/(2*(AR+2)*(th/Cr)^3)))</f>
-        <v>1396.1352265985054</v>
+        <v>1390.9717483254069</v>
       </c>
       <c r="C20" s="77" t="s">
         <v>64</v>
@@ -36015,7 +36023,7 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="85">
         <f>B20/3.281</f>
-        <v>425.52125163014489</v>
+        <v>423.94750025157174</v>
       </c>
       <c r="C21" s="77" t="s">
         <v>16</v>
@@ -36024,7 +36032,7 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="85">
         <f>B20/a</f>
-        <v>1.3261282564596804</v>
+        <v>1.3212236925541807</v>
       </c>
       <c r="C22" s="77" t="s">
         <v>65</v>
@@ -36039,7 +36047,7 @@
       </c>
       <c r="B24" s="85">
         <f>B20/SM</f>
-        <v>1163.4460221654213</v>
+        <v>1159.1431236045057</v>
       </c>
       <c r="C24" s="77" t="s">
         <v>64</v>
@@ -36048,7 +36056,7 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="85">
         <f>B21/SM</f>
-        <v>354.60104302512076</v>
+        <v>353.28958354297646</v>
       </c>
       <c r="C25" s="77" t="s">
         <v>16</v>
@@ -36057,7 +36065,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="85">
         <f>B22/SM</f>
-        <v>1.105106880383067</v>
+        <v>1.1010197437951506</v>
       </c>
       <c r="C26" s="77" t="s">
         <v>65</v>
@@ -37917,21 +37925,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085350F7B39B72E47B5E6CE8BF446E056" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="db0a58a5944fd69924d99daadaf1f9e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85e5976b-784c-4b13-9c8e-bb1dacbd559e" xmlns:ns3="b9b176e5-2c46-4bbf-96dd-b8b217db8038" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e3b80587b7892398146653f22fc374b" ns2:_="" ns3:_="">
     <xsd:import namespace="85e5976b-784c-4b13-9c8e-bb1dacbd559e"/>
@@ -38154,24 +38147,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73972F0-E86A-461F-AF30-0AF51C282440}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BED63D46-FEAE-48C6-B295-DDEE4C241F0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1026FC65-331A-47ED-AD19-458AA35E71E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38188,4 +38179,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BED63D46-FEAE-48C6-B295-DDEE4C241F0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73972F0-E86A-461F-AF30-0AF51C282440}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>